--- a/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S18"/>
+  <dimension ref="A1:S19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -738,7 +738,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -876,7 +876,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -949,7 +949,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -961,11 +961,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -980,7 +976,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>100</v>
+        <v>2000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -996,33 +992,33 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>1.3</v>
+        <v>1.15</v>
       </c>
       <c r="O8" t="n">
-        <v>52.38</v>
+        <v>52.6</v>
       </c>
       <c r="P8" t="n">
-        <v>0.02</v>
+        <v>0.09</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.95</v>
+        <v>1.95</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1053,7 +1049,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1069,33 +1065,33 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.15</v>
+        <v>1.3</v>
       </c>
       <c r="O9" t="n">
-        <v>52.28</v>
+        <v>52.38</v>
       </c>
       <c r="P9" t="n">
         <v>0.02</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1107,7 +1103,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1115,14 +1115,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G10" t="n">
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1137,34 +1137,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>2</v>
+      </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.09</v>
+        <v>1.15</v>
       </c>
       <c r="O10" t="n">
-        <v>51.79</v>
+        <v>52.28</v>
       </c>
       <c r="P10" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.68</v>
+        <v>0.97</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S10" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,14 +1184,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1206,34 +1206,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="n">
-        <v>1</v>
-      </c>
+      <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.19</v>
+        <v>1.09</v>
       </c>
       <c r="O11" t="n">
-        <v>51.72</v>
+        <v>51.79</v>
       </c>
       <c r="P11" t="n">
-        <v>0.1</v>
+        <v>0.03</v>
       </c>
       <c r="Q11" t="n">
-        <v>2.77</v>
+        <v>1.68</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1245,11 +1245,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1264,7 +1260,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1280,33 +1276,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="O12" t="n">
-        <v>51.11</v>
+        <v>51.72</v>
       </c>
       <c r="P12" t="n">
-        <v>0.04</v>
+        <v>0.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.59</v>
+        <v>2.77</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1353,33 +1349,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.34</v>
+        <v>1.29</v>
       </c>
       <c r="O13" t="n">
-        <v>50.74</v>
+        <v>51.11</v>
       </c>
       <c r="P13" t="n">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.92</v>
+        <v>1.59</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1410,7 +1406,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1426,33 +1422,33 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.5</v>
+        <v>1.34</v>
       </c>
       <c r="O14" t="n">
-        <v>50.33</v>
+        <v>50.74</v>
       </c>
       <c r="P14" t="n">
-        <v>0.05</v>
+        <v>0.06</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.16</v>
+        <v>1.92</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1499,33 +1495,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="O15" t="n">
-        <v>50.28</v>
+        <v>50.33</v>
       </c>
       <c r="P15" t="n">
-        <v>0.14</v>
+        <v>0.05</v>
       </c>
       <c r="Q15" t="n">
-        <v>2.78</v>
+        <v>0.16</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1556,7 +1552,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1572,33 +1568,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.74</v>
+        <v>1.41</v>
       </c>
       <c r="O16" t="n">
-        <v>49.48</v>
+        <v>50.28</v>
       </c>
       <c r="P16" t="n">
-        <v>0.02</v>
+        <v>0.14</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.85</v>
+        <v>2.78</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1645,7 +1641,7 @@
         </is>
       </c>
       <c r="L17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M17" t="n">
         <v>2</v>
@@ -1654,24 +1650,24 @@
         <v>1.74</v>
       </c>
       <c r="O17" t="n">
-        <v>49.37</v>
+        <v>49.48</v>
       </c>
       <c r="P17" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.39</v>
+        <v>0.85</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1718,29 +1714,102 @@
         </is>
       </c>
       <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O18" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
         <v>3</v>
       </c>
-      <c r="M18" t="n">
-        <v>2</v>
-      </c>
-      <c r="N18" t="n">
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
         <v>1.63</v>
       </c>
-      <c r="O18" t="n">
+      <c r="O19" t="n">
         <v>48.68</v>
       </c>
-      <c r="P18" t="n">
+      <c r="P19" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="Q19" t="n">
         <v>0.6</v>
       </c>
-      <c r="R18" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S19"/>
+  <dimension ref="A1:S27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +527,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -596,7 +596,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -669,7 +669,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -689,14 +689,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G4" t="n">
         <v>128</v>
       </c>
       <c r="H4" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="I4" t="n">
         <v>50</v>
@@ -711,34 +711,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
       <c r="M4" t="n">
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>1.06</v>
+        <v>1.09</v>
       </c>
       <c r="O4" t="n">
-        <v>53.37</v>
+        <v>53.49</v>
       </c>
       <c r="P4" t="n">
-        <v>0.02</v>
+        <v>0.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.74</v>
+        <v>2.54</v>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_03_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S4" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_06_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -758,14 +758,14 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>WH</t>
+          <t>NCEK</t>
         </is>
       </c>
       <c r="G5" t="n">
         <v>128</v>
       </c>
       <c r="H5" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I5" t="n">
         <v>50</v>
@@ -780,34 +780,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="n">
-        <v>3</v>
-      </c>
+      <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>1.14</v>
+        <v>1.06</v>
       </c>
       <c r="O5" t="n">
-        <v>53.13</v>
+        <v>53.37</v>
       </c>
       <c r="P5" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.28</v>
+        <v>0.74</v>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S5" t="inlineStr"/>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_03_09', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S5" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -834,7 +834,7 @@
         <v>128</v>
       </c>
       <c r="H6" t="n">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="I6" t="n">
         <v>50</v>
@@ -850,33 +850,33 @@
         </is>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M6" t="n">
         <v>2</v>
       </c>
       <c r="N6" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="O6" t="n">
-        <v>53.12</v>
+        <v>53.16</v>
       </c>
       <c r="P6" t="n">
-        <v>0.1</v>
+        <v>0.05</v>
       </c>
       <c r="Q6" t="n">
-        <v>2.56</v>
+        <v>0.58</v>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_50_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -888,11 +888,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -907,7 +903,7 @@
         <v>128</v>
       </c>
       <c r="H7" t="n">
-        <v>500</v>
+        <v>2000</v>
       </c>
       <c r="I7" t="n">
         <v>50</v>
@@ -929,27 +925,27 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="O7" t="n">
-        <v>52.7</v>
+        <v>53.13</v>
       </c>
       <c r="P7" t="n">
-        <v>0.05</v>
+        <v>0.03</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.58</v>
+        <v>0.28</v>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -976,7 +972,7 @@
         <v>128</v>
       </c>
       <c r="H8" t="n">
-        <v>2000</v>
+        <v>1000</v>
       </c>
       <c r="I8" t="n">
         <v>50</v>
@@ -1001,24 +997,24 @@
         <v>1.15</v>
       </c>
       <c r="O8" t="n">
-        <v>52.6</v>
+        <v>53.12</v>
       </c>
       <c r="P8" t="n">
-        <v>0.09</v>
+        <v>0.1</v>
       </c>
       <c r="Q8" t="n">
-        <v>1.95</v>
+        <v>2.56</v>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1030,11 +1026,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1049,7 +1041,7 @@
         <v>128</v>
       </c>
       <c r="H9" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I9" t="n">
         <v>50</v>
@@ -1071,27 +1063,27 @@
         <v>2</v>
       </c>
       <c r="N9" t="n">
-        <v>1.3</v>
+        <v>1.13</v>
       </c>
       <c r="O9" t="n">
-        <v>52.38</v>
+        <v>52.86</v>
       </c>
       <c r="P9" t="n">
-        <v>0.02</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.95</v>
+        <v>1.29</v>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_57_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1103,11 +1095,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1122,7 +1110,7 @@
         <v>128</v>
       </c>
       <c r="H10" t="n">
-        <v>500</v>
+        <v>1500</v>
       </c>
       <c r="I10" t="n">
         <v>50</v>
@@ -1138,33 +1126,33 @@
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
         <v>2</v>
       </c>
       <c r="N10" t="n">
-        <v>1.15</v>
+        <v>1.13</v>
       </c>
       <c r="O10" t="n">
-        <v>52.28</v>
+        <v>52.84</v>
       </c>
       <c r="P10" t="n">
         <v>0.02</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.97</v>
+        <v>0.31</v>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_42_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1184,14 +1172,14 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>NCEK</t>
+          <t>WH</t>
         </is>
       </c>
       <c r="G11" t="n">
         <v>128</v>
       </c>
       <c r="H11" t="n">
-        <v>2000</v>
+        <v>1500</v>
       </c>
       <c r="I11" t="n">
         <v>50</v>
@@ -1206,34 +1194,34 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
       <c r="M11" t="n">
         <v>2</v>
       </c>
       <c r="N11" t="n">
-        <v>1.09</v>
+        <v>1.13</v>
       </c>
       <c r="O11" t="n">
-        <v>51.79</v>
+        <v>52.79</v>
       </c>
       <c r="P11" t="n">
-        <v>0.03</v>
+        <v>0.02</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.68</v>
+        <v>1.18</v>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
-        </is>
-      </c>
-      <c r="S11" t="n">
-        <v>4096</v>
-      </c>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_21_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1260,7 +1248,7 @@
         <v>128</v>
       </c>
       <c r="H12" t="n">
-        <v>500</v>
+        <v>2500</v>
       </c>
       <c r="I12" t="n">
         <v>50</v>
@@ -1276,33 +1264,33 @@
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="n">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="O12" t="n">
-        <v>51.72</v>
+        <v>52.73</v>
       </c>
       <c r="P12" t="n">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="Q12" t="n">
-        <v>2.77</v>
+        <v>0.86</v>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_28_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1333,7 +1321,7 @@
         <v>128</v>
       </c>
       <c r="H13" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
       <c r="I13" t="n">
         <v>50</v>
@@ -1349,33 +1337,33 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>1.29</v>
+        <v>1.11</v>
       </c>
       <c r="O13" t="n">
-        <v>51.11</v>
+        <v>52.7</v>
       </c>
       <c r="P13" t="n">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="Q13" t="n">
-        <v>1.59</v>
+        <v>1.58</v>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -1387,11 +1375,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1406,7 +1390,7 @@
         <v>128</v>
       </c>
       <c r="H14" t="n">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I14" t="n">
         <v>50</v>
@@ -1428,27 +1412,27 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>1.34</v>
+        <v>1.15</v>
       </c>
       <c r="O14" t="n">
-        <v>50.74</v>
+        <v>52.6</v>
       </c>
       <c r="P14" t="n">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="Q14" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -1495,33 +1479,33 @@
         </is>
       </c>
       <c r="L15" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M15" t="n">
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="O15" t="n">
-        <v>50.33</v>
+        <v>52.38</v>
       </c>
       <c r="P15" t="n">
-        <v>0.05</v>
+        <v>0.02</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.16</v>
+        <v>0.95</v>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -1533,11 +1517,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1552,7 +1532,7 @@
         <v>128</v>
       </c>
       <c r="H16" t="n">
-        <v>100</v>
+        <v>3000</v>
       </c>
       <c r="I16" t="n">
         <v>50</v>
@@ -1568,33 +1548,33 @@
         </is>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M16" t="n">
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>1.41</v>
+        <v>1.09</v>
       </c>
       <c r="O16" t="n">
-        <v>50.28</v>
+        <v>52.34</v>
       </c>
       <c r="P16" t="n">
-        <v>0.14</v>
+        <v>0.01</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.78</v>
+        <v>1.43</v>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -1625,7 +1605,7 @@
         <v>128</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="I17" t="n">
         <v>50</v>
@@ -1647,27 +1627,27 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>1.74</v>
+        <v>1.15</v>
       </c>
       <c r="O17" t="n">
-        <v>49.48</v>
+        <v>52.28</v>
       </c>
       <c r="P17" t="n">
         <v>0.02</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.85</v>
+        <v>0.97</v>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
@@ -1679,11 +1659,7 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>moco</t>
-        </is>
-      </c>
+      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1698,7 +1674,7 @@
         <v>128</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I18" t="n">
         <v>50</v>
@@ -1720,20 +1696,20 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>1.74</v>
+        <v>1.11</v>
       </c>
       <c r="O18" t="n">
-        <v>49.37</v>
+        <v>52.09</v>
       </c>
       <c r="P18" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.39</v>
+        <v>1.56</v>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_14_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
       <c r="S18" t="inlineStr"/>
@@ -1752,64 +1728,640 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>NCEK</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>128</v>
+      </c>
+      <c r="H19" t="n">
+        <v>2000</v>
+      </c>
+      <c r="I19" t="n">
+        <v>50</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="O19" t="n">
+        <v>51.79</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'nce_k', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_14_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'NCEK', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S19" t="n">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>128</v>
+      </c>
+      <c r="H20" t="n">
+        <v>500</v>
+      </c>
+      <c r="I20" t="n">
+        <v>50</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="O20" t="n">
+        <v>51.72</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>moco</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>imdb</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>WH</t>
         </is>
       </c>
-      <c r="G19" t="n">
-        <v>128</v>
-      </c>
-      <c r="H19" t="n">
+      <c r="G21" t="n">
+        <v>128</v>
+      </c>
+      <c r="H21" t="n">
+        <v>200</v>
+      </c>
+      <c r="I21" t="n">
+        <v>50</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>2</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="O21" t="n">
+        <v>51.11</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>128</v>
+      </c>
+      <c r="H22" t="n">
+        <v>200</v>
+      </c>
+      <c r="I22" t="n">
+        <v>50</v>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="O22" t="n">
+        <v>50.74</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>128</v>
+      </c>
+      <c r="H23" t="n">
+        <v>100</v>
+      </c>
+      <c r="I23" t="n">
+        <v>50</v>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="O23" t="n">
+        <v>50.33</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>50</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>mp_spec</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>WL_0_0_1</t>
-        </is>
-      </c>
-      <c r="L19" t="n">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>128</v>
+      </c>
+      <c r="H24" t="n">
+        <v>100</v>
+      </c>
+      <c r="I24" t="n">
+        <v>50</v>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="O24" t="n">
+        <v>50.28</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>128</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>50</v>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L25" t="n">
+        <v>2</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O25" t="n">
+        <v>49.48</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>128</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>50</v>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="O26" t="n">
+        <v>49.37</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>MVSE</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>MPRW</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>imdb</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>WH</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>128</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>50</v>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>mp_spec</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>WL_0_0_1</t>
+        </is>
+      </c>
+      <c r="L27" t="n">
         <v>3</v>
       </c>
-      <c r="M19" t="n">
-        <v>2</v>
-      </c>
-      <c r="N19" t="n">
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="n">
         <v>1.63</v>
       </c>
-      <c r="O19" t="n">
+      <c r="O27" t="n">
         <v>48.68</v>
       </c>
-      <c r="P19" t="n">
+      <c r="P27" t="n">
         <v>0.11</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="Q27" t="n">
         <v>0.6</v>
       </c>
-      <c r="R19" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S27" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
+++ b/results/MVSE/imdb/MVSE_imdb<l01><WH>53.73.xlsx
@@ -539,7 +539,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -592,7 +596,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_28_44', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S2" t="inlineStr"/>
+      <c r="S2" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -665,7 +671,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_28_18', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr"/>
+      <c r="S3" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -681,7 +689,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -734,7 +746,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_06_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S4" t="inlineStr"/>
+      <c r="S4" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -750,7 +764,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -780,7 +798,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>2</v>
+      </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
@@ -819,7 +839,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -872,7 +896,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_50_06', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -888,7 +914,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -941,7 +971,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_41_20', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S7" t="inlineStr"/>
+      <c r="S7" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -957,7 +989,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1010,7 +1046,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_16_24', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S8" t="inlineStr"/>
+      <c r="S8" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1026,7 +1064,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1079,7 +1121,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_57_28', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S9" t="inlineStr"/>
+      <c r="S9" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1095,7 +1139,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1148,7 +1196,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_42_42', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S10" t="inlineStr"/>
+      <c r="S10" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1164,7 +1214,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1217,7 +1271,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_21_12', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 1500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr"/>
+      <c r="S11" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1233,7 +1289,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1286,7 +1346,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_28_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr"/>
+      <c r="S12" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1359,7 +1421,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_04_54', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr"/>
+      <c r="S13" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1375,7 +1439,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1428,7 +1496,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-18_15_02', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1501,7 +1571,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_52_29', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr"/>
+      <c r="S15" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1517,7 +1589,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1570,7 +1646,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_34_49', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 3000, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S16" t="inlineStr"/>
+      <c r="S16" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1643,7 +1721,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_16_40', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr"/>
+      <c r="S17" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1659,7 +1739,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1712,7 +1796,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_21-03_14_16', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 2500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr"/>
+      <c r="S18" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1728,7 +1814,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1758,7 +1848,9 @@
           <t>WL_0_0_1</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>2</v>
+      </c>
       <c r="M19" t="n">
         <v>2</v>
       </c>
@@ -1797,7 +1889,11 @@
           <t>MPRW</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>moco</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>imdb</t>
@@ -1850,7 +1946,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'config', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_19-02_04_21', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 500, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr"/>
+      <c r="S20" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1923,7 +2021,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_40_26', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr"/>
+      <c r="S21" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1996,7 +2096,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_52_22', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 200, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S22" t="inlineStr"/>
+      <c r="S22" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2069,7 +2171,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_04_08', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr"/>
+      <c r="S23" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2142,7 +2246,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_28_52', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 100, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -2215,7 +2321,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-22_28_58', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 2, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S25" t="inlineStr"/>
+      <c r="S25" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -2288,7 +2396,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-21_40_38', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 1, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S26" t="inlineStr"/>
+      <c r="S26" t="n">
+        <v>4096</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2361,7 +2471,9 @@
           <t>{'_interested_conf_list': ['model', 'aug_mode', 'train_mode', 'dataset', 'exp_name', 'batch_size', 'train_percentage', 'p_epoch', 'f_epoch', 'ge_mode', 'skip_pretrain', 'model', 'cl_mode', 'walk_hop', 'seed', 'mode'], 'alpha': 0.999, 'aug_mode': 'MPRW', 'batch_size': 128, 'beta1': 0.9, 'beta2': 0.999, 'birth_time': '02_15-23_17_05', 'cl_mode': 'WL_0_0_1', 'clip_norm': 1.0, 'dataset': 'imdb', 'exp_name': 'WH', 'f_epoch': 50, 'ge_layer': 2, 'ge_mode': 'mp_spec', 'gnn_model': 'gin', 'lr': 0.005, 'model': 'MVSE', 'mp_list': ['mam', 'mdm'], 'mv_hidden_size': 48, 'mv_map_layer': 2, 'nce_k': 4096, 'nce_t': 0.07, 'node_emb_dim': 32, 'norm': True, 'num_samples': 2000, 'num_workers': 1, 'p_epoch': 0, 'positional_embedding_size': 32, 'restart_prob': 0.2, 'seed': 2, 'subg_emb_dim': 64, 'subgraph_size': 128, 'train_mode': 'moco', 'walk_hop': 3, 'walk_num': 3, 'weight_decay': 1e-05}</t>
         </is>
       </c>
-      <c r="S27" t="inlineStr"/>
+      <c r="S27" t="n">
+        <v>4096</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
